--- a/conven_control/data/random_position_test_old.xlsx
+++ b/conven_control/data/random_position_test_old.xlsx
@@ -130,50 +130,323 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="10.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>0.2</v>
+        <v>-0.35</v>
       </c>
       <c r="C1" s="0" t="n">
         <v>-0.278</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>-0.0005558</v>
+        <v>-165.49434781</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>0.7071068</v>
-      </c>
-      <c r="F1" s="0" t="n">
-        <v>-5.349E-005</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>0.7071068</v>
+        <v>90</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>-165.4443948</v>
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="1"/>
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>-62.12169</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>-62.150529</v>
+      </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="1"/>
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>-148.4226</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>-148.340141</v>
+      </c>
       <c r="K3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>137.858317</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>137.9332523</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>-145.42234</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>-145.33759</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>-126.107579</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>-126.109053</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>-3.05851137</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>-3.034</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1.80625</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1.7817281</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>155.878373</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>155.874342</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>-134.6619</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>-134.599594</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>132.0622</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>132.082038</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>130.53491</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>130.58011</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>63.59406</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>63.602842</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>111.202803</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>111.2848054</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>-51.29681</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>-51.244601</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -194,7 +467,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
